--- a/employee_personal_data.xlsx
+++ b/employee_personal_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="431">
   <si>
     <t>Name</t>
   </si>
@@ -1296,6 +1296,27 @@
   </si>
   <si>
     <t>wilcox2@yahoo.com</t>
+  </si>
+  <si>
+    <t>Varun</t>
+  </si>
+  <si>
+    <t>Shrikanth</t>
+  </si>
+  <si>
+    <t>Sameeksha</t>
+  </si>
+  <si>
+    <t>banglore</t>
+  </si>
+  <si>
+    <t>snaik2187@altimetrik.com</t>
+  </si>
+  <si>
+    <t>Shrikant.Salke@altimetrik.com</t>
+  </si>
+  <si>
+    <t>vsrinivasan2203@altimetrik.com</t>
   </si>
 </sst>
 </file>
@@ -1788,13 +1809,14 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2117,10 +2139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5776,6 +5798,111 @@
         <v>919884899057</v>
       </c>
     </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2203</v>
+      </c>
+      <c r="B105" t="s">
+        <v>424</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>427</v>
+      </c>
+      <c r="F105" s="2">
+        <v>917410186388</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J105" s="5">
+        <v>2399</v>
+      </c>
+      <c r="K105" s="2">
+        <v>919884899055</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3165</v>
+      </c>
+      <c r="B106" t="s">
+        <v>425</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F106" s="2">
+        <v>919448493932</v>
+      </c>
+      <c r="G106" t="s">
+        <v>429</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J106" s="5">
+        <v>2399</v>
+      </c>
+      <c r="K106" s="2">
+        <v>919884899055</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2187</v>
+      </c>
+      <c r="B107" t="s">
+        <v>426</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F107" s="2">
+        <v>919611666426</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J107" s="5">
+        <v>2399</v>
+      </c>
+      <c r="K107" s="2">
+        <v>919884899055</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
@@ -5785,8 +5912,12 @@
     <hyperlink ref="G104" r:id="rId5"/>
     <hyperlink ref="I103" r:id="rId6"/>
     <hyperlink ref="I104" r:id="rId7"/>
+    <hyperlink ref="G107" r:id="rId8"/>
+    <hyperlink ref="I105" r:id="rId9"/>
+    <hyperlink ref="I106" r:id="rId10"/>
+    <hyperlink ref="I107" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/employee_personal_data.xlsx
+++ b/employee_personal_data.xlsx
@@ -2142,7 +2142,7 @@
   <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:H107"/>
+      <selection activeCell="F105" sqref="F105:F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5815,7 +5815,7 @@
         <v>427</v>
       </c>
       <c r="F105" s="2">
-        <v>917410186388</v>
+        <v>919611666426</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>430</v>
@@ -5850,7 +5850,7 @@
         <v>427</v>
       </c>
       <c r="F106" s="2">
-        <v>919448493932</v>
+        <v>917410186388</v>
       </c>
       <c r="G106" t="s">
         <v>429</v>
@@ -5885,7 +5885,7 @@
         <v>427</v>
       </c>
       <c r="F107" s="2">
-        <v>919611666426</v>
+        <v>919448493932</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>428</v>
